--- a/Output_testing/R1_201907/Country/HKD/MN/CAMEROON_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CAMEROON_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>0.735063</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.401757</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>76.94059506902275</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/CAMEROON_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CAMEROON_201907_HKD_MN.xlsx
@@ -812,136 +812,471 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>781.2773999999999</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>85.48611339347229</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>484.315627</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>83.58105342129572</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>619.863746</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>93.41415486130806</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>235.372978</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>85.25674306670996</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-40.86340591171984</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>55.333664</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.054520296094954</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>54.097468</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.335902272806152</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>15.558903</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.344743959770266</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>9.943334</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.601672032481492</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>36.01358038285791</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.05870538243943348</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.973819</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.2974567151636454</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>7.002113</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.536303674439084</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>10.116311</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.106910438302236</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.014193</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.3476005384682743</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.848376</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.429253426231566</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>5.294364</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.917723245400068</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>114.8271681282349</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>7.662716</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.8384420295249477</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3.759161</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.6487394146384863</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2.828641</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.426279339816472</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.487077</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.263088186116393</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>73.59618943122742</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.563411</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.3899026860543342</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.201468</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.3799196314457825</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.473072</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.2219935861999207</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.068234</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.7491552184033369</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>82.96786658657567</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.603637</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.2848857624928611</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.618702</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2793484471546037</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.363873</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3562382861062903</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.470632</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.5326919667459949</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-26.84936848890975</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.357928</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.4918683511710989</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>857.0624096979948</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.160762</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.4204509304190407</v>
+      </c>
+      <c r="K26" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.838327</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.09172838863994971</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.000438</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.1507671175547945</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.127233</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4083060641622025</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>413.7564377193382</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>51.955228</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.684857276290991</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>30.974013</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>5.345358462333714</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>15.480196</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>2.332882727468629</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>7.790843</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.821997263951327</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.82554320549721</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1308,593 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.573199</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>84.709921216089</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.8985610000000001</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>75.04969564549214</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.511637</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>69.60451008961137</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>91.49859243273919</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>23.17615837231433</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>15.13919082080983</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.23062788568832</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>26.12918892666343</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>8.501407567260808</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-57.90505065444058</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.4677237222790173</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.266300983725205</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.048556404140023</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.143176913157069</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>POTTERY</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.1508879631011688</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1926,471 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>781.2773999999999</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>85.54945348644266</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>484.315627</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>83.75410840377673</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>619.863746</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>93.5177489703869</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>235.372978</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>85.38099317917988</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-40.86340591171984</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>55.333664</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.059006333221014</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>54.097468</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.355232304411773</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>15.558903</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.347344225885086</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>9.943334</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.606920979825931</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>36.01358038285791</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.05882693222271256</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.973819</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.2977865876914507</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>7.002113</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.5399999922372</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>10.116311</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.10773059267923</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.014193</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.3483202470940057</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.848376</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.429729458223993</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>5.294364</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.920518066318112</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>114.8271681282349</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>7.662716</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.8390632648811036</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.759161</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.6500826327894841</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2.828641</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.4267520736167464</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.487077</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.264928965432366</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>73.59618943122742</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.563411</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.390191580605785</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.201312</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.3806792793793841</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.473072</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.2222397718857811</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.068234</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.7502470102874252</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>82.96786658657567</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.603637</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2850968457900883</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.618702</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.2799268394893444</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.363873</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.3566333460190386</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.470632</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.5334682928687067</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-26.84936848890975</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.357928</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.4925851824240307</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>857.0624096979948</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.160762</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4210636804903373</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.838327</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.09179635388522568</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.000438</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.1509343147557398</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.127233</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4089011147420095</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>413.7564377193382</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>51.278567</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.614975401077689</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>29.776881</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>5.149402538688597</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>14.745133</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>2.224572182721214</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>7.389086</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>2.680373536194004</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-20.60234919322975</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2422,517 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>23.151762</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>67.61054314789655</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>9.595542999999999</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>39.95505050936163</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>4.055426</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>40.18935273398127</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.385941</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>53.07140014542381</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>8.198703062881929</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>5.353286</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>15.63330575383552</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.062472</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>16.91579871538978</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.717515</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>17.02060798567249</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.139574</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>17.86173703242945</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>39.291620677137</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.9114449999999999</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.795181889290175</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.546014</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.32102964711311</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.1567827951623</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-39.80917278482894</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.4704394119798824</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.249717</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>12.38472045369657</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.527126</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.262197974819015</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-32.367718758019</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>0.69514</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.030030930856529</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>6.879874</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>28.6472285276658</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.941283</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>9.328133347643403</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.468321887882598</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.5177376120920854</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.1764002057808085</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.517110965830106</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.489555990283971</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.6189994847940579</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.5830745678704283</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.4607913808987973</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4815320885024033</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.2849328947951287</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.5217576939588929</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>65.10266838607282</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4.707564</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>13.74759117442052</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.295523</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.558368652029525</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.55209</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.471222937098031</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.4490614615453701</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-84.42951707046662</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
